--- a/pred_ohlcv/54_21/2019-10-19 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BCD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1824.339539409999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2387.585739409999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2777.585739409999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2518.325639409999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2799.94873941</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2799.94873941</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1320.42113941</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2419.073539409999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2419.073539409999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-309.0735394099993</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-736.0735394099993</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-18677.21263941</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-14702.14853941</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-19291.6215065</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-19692.6215065</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-18532.1507065</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-18558.7274065</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-19476.2381065</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-18475.7946065</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-18494.3819065</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-18492.3819065</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-18510.23690649999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-18409.39750649999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-25875.50343117999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BCD ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-3060.66283941</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1321.42113941</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1320.42113941</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-18677.21263941</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-14702.14853941</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-19291.6215065</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-19692.6215065</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-18538.4058065</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-18532.1507065</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-18535.7274065</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-18558.7274065</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-18835.8107065</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-18492.3819065</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-18409.39750649999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-25875.50343117999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
